--- a/NicheNet_output/performances_one_ANANSE_48.xlsx
+++ b/NicheNet_output/performances_one_ANANSE_48.xlsx
@@ -462,7 +462,7 @@
         <v>0.03287840142216039</v>
       </c>
       <c r="J2">
-        <v>0.01953387292339947</v>
+        <v>0.01668496297262438</v>
       </c>
       <c r="K2">
         <v>48.87599210246642</v>
@@ -510,7 +510,7 @@
         <v>0.0391668435670187</v>
       </c>
       <c r="J3">
-        <v>0.02347909922340745</v>
+        <v>0.01780059792318987</v>
       </c>
       <c r="K3">
         <v>44.15041596278861</v>
@@ -558,7 +558,7 @@
         <v>0.03071171411851513</v>
       </c>
       <c r="J4">
-        <v>0.01333470091341628</v>
+        <v>0.01499726483983411</v>
       </c>
       <c r="K4">
         <v>123.0065363745084</v>
